--- a/src/main/resources/UserDetails.xlsx
+++ b/src/main/resources/UserDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2D5D8D19-004E-4675-B047-DBD87E038AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5BB8F1B5-00D6-4036-9B2F-E4860561EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -44,10 +44,31 @@
     <t>att</t>
   </si>
   <si>
-    <t>sfdsd2@dds.com</t>
-  </si>
-  <si>
     <t>AraAtte@123</t>
+  </si>
+  <si>
+    <t>fhfg@gdfg.com</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Centrale</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>myfirstbuy</t>
   </si>
 </sst>
 </file>
@@ -376,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -421,13 +442,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{928203B9-DD2F-4937-81EE-D76FACA7A721}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/UserDetails.xlsx
+++ b/src/main/resources/UserDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5BB8F1B5-00D6-4036-9B2F-E4860561EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A00F2B44-3748-42C3-AB8D-1A665A7B3FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,12 +44,6 @@
     <t>att</t>
   </si>
   <si>
-    <t>AraAtte@123</t>
-  </si>
-  <si>
-    <t>fhfg@gdfg.com</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -59,16 +53,22 @@
     <t>pincode</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Centrale</t>
-  </si>
-  <si>
     <t>coupon</t>
   </si>
   <si>
     <t>myfirstbuy</t>
+  </si>
+  <si>
+    <t>fhfg2@gdfg.com</t>
+  </si>
+  <si>
+    <t>#Aravind@123</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Adana</t>
   </si>
 </sst>
 </file>
@@ -399,11 +399,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -426,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -441,29 +444,29 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>50000</v>
@@ -471,14 +474,17 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1EB728D3-C390-4697-91A4-A71E57569C69}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>